--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/65_Rize_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/65_Rize_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB2E344-7DA0-457D-A3F0-A1A66776DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{668DEDA7-7DC7-422A-A3E7-0D1B296BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{2BB2186E-A7BB-46E4-B99F-17BA3E101522}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{973F62A2-2833-40D7-9754-E7828C07F0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{675FC09C-37AA-42FB-A11C-0E6041AC92AD}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AA4DB268-238E-49E0-8CCA-C2794F09123E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6F5486AB-1BAB-4E50-9FF7-16D84CE3D97E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{80D02489-BDD7-4275-9108-080DFE560D01}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{427A0E04-394A-48FB-9ED5-76CDD63B4E39}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{18A00308-F6E9-4511-A9F5-06C887041E2F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{64D1F211-90C9-443C-AD7C-F72682862F31}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C80F207A-7377-4BC8-83D7-2C49EBC190D1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FB9E0061-61EC-4ADA-9190-336F8E77B146}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FDDF91BD-CAA7-4A9E-BD99-C714C659C29A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B374C325-0D6F-4E8B-9139-D242F4C52B37}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6C5CD400-637F-4CCF-9569-92097723ED0A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{96F94F43-A5A6-46E2-A655-39DF674821EF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{195FC95F-DBDC-4F5C-AFCB-1E4774EA45F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63353821-2CAD-4A34-9773-89560E431595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B46A6B-6717-4B4A-8F00-774F87CDF9A2}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2579,18 +2579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4531B47-CBA5-46E3-9154-AF13D396DB98}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49C2471D-B913-41A0-9557-F388C8389F01}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF90411D-B3F0-4ED1-99EB-895B1B742B1E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5E1ED5E-6172-4175-9EA2-31AE66326D57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAC4CBD0-A987-4AFE-9C19-0CEBA569D1E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{931C51DE-4644-4358-8610-BFDAFFAE17FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B10DE9BB-BF26-4E85-B9B8-2828A8D13F45}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7753C0C6-DA15-495D-87DE-BB01DDAC3016}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F373C220-12BC-408F-B509-2255E4421F62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C669B5E-AD95-46F3-A2E9-A3A9AD8DC278}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E08DAF0D-B787-449C-B204-0E24E7D078A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0CDE2C2-21B5-48BB-9578-7EEEC824D5A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EA8AD6F-9017-414E-9F79-5FF6CAE8C614}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51D6C368-F2E2-4919-89D0-21750E001BD7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8C5A6E7-68AD-4842-9058-7FAA7DB15A7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EBCEA75-49BA-434F-9626-7F8E3D6896F0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47310076-DF8B-4ADD-9668-C1578A679608}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A592A2CA-1195-444B-80B9-C29E61B3DCB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AF5EDC0-2ABD-46EB-9E79-BDF948908312}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48A1881D-58AE-4E16-8AE9-4C773AD332ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50D9ACFF-0919-4036-BBB6-22B5F71F7927}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB00E5F4-8FE0-4F06-8C1F-079BA5BDAC2A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55FE8791-0F47-4E8B-9868-0D967354300F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA942CCB-B32E-4243-A484-F937E0DFB461}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2603,7 +2603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12054D4-BC0B-435E-9F87-C94E042FF923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AE3A3D-D7C6-49B0-B53E-EB645A19D243}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3837,18 +3837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41B22BE4-50A4-4170-B707-A066E20971CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A08C6799-59D4-44D4-AA02-CE97C348FE8A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28DE8089-9F2A-4E43-9FA7-0E7816AD4DAC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9EEA248-CD2A-41F6-B0EF-3DE89729F45D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D7CBC38-02CD-4B23-8698-3086758E9212}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D982E709-B96C-48FB-B2DA-7A59012DF0EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AD7DEF5-2346-4D2C-9F5E-470DD854FB6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B5B4732-E74B-4A34-862C-1A64272A5BF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C6FFB7E-9333-4667-84B5-60C012A542D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9106D608-AA9A-4C32-BA40-12D2F582DFAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78FF5E21-4DF3-4BFF-92A8-9EF6359BD0CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86B3F285-CA4E-45C7-A1E4-49167BD10DFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8952319B-B838-4B24-A531-A73278C95A08}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E205F11-CE2C-4527-90F9-72C47A2B677B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5915C720-4999-496C-9362-1FD11F102F33}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB97F9F5-6557-41D8-AE2B-6BC4299E4B14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75B4128-2BE4-43BD-AC5D-E58FD225FEF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6C854E4-89EC-4091-8609-079CAF375FE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{257BFF8E-EB4A-482A-8D64-9984D7A6A80F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D7324E7-77F7-4DF5-9F00-D73AC7BC5FC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33E0F131-FECC-4151-9CFC-8FC868F3BDA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C76774F8-F179-4691-A514-93042B23A785}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA3A43AA-186C-4E6B-B9AE-E7E259EADFFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACDDC92E-616D-4B55-BFC8-C58E8437BB2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3861,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D97B9-CE76-4130-A869-B98058E82B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D53D9-E915-4E4A-B7FB-918DFEBB3D94}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5095,18 +5095,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B23D010A-7955-422C-A770-DA7A6F61C724}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB3DF3A1-043D-4C38-A302-820EB3A35A3B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA13C239-8C4F-4005-A479-DC21DF4B2DB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF197127-7A76-4DF7-9629-81F7F590A2F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDDD307E-921A-493C-B33A-E6AF34834CC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99D2BB0F-8C22-492A-B899-2ECA3BE34893}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFB19E4E-8FBF-4913-9FD1-509D24683ACC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86729C65-2E6C-47E8-8056-7368603ED425}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB8A2ED0-3EB6-4342-838A-2CE324D88886}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44E44AC6-2010-402F-A4B8-0399B7A951A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1925D1D-303D-45E7-AB01-4019D790DF5E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01DC914A-5BF9-434D-928F-58039B08C3CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD87737B-2A81-4839-A28D-C0C28E2ECD99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E53515C-5E1C-4C20-A5D1-ACC4F43BD025}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1708EEE1-E81E-4ED3-85E8-B81CFB3E83AC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2199A156-6AC0-47DA-924F-D7EAE3CE8B74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6DE176FE-4B73-4AB8-9DD9-936325E44D58}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26CC83FE-6C32-40E2-AF6B-B17959839BE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85A5136D-4E4D-4665-9D56-03D33DC7F8F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF206CF8-233E-46D2-AE16-163E5E03F9DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F96FB69-4F68-4AAD-ABB8-0C20D1044593}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D588933F-D7AA-4BFA-9A34-9ECD7AAA97B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42EB317F-23B4-4A8E-AA6C-027013A7AFF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4325955B-01EE-4A33-80D4-559FDD32276C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D4CA7-5FA9-47AC-9B9C-A514240358F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17755C6C-6D17-4E21-B65E-766D59284729}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6349,18 +6349,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4437383-4319-4A42-8798-4925B9A429FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F932FF8-CC2D-446C-80DE-D38121AC1062}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A44FF464-B2F8-45B4-82EE-DB8D59372761}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7A7C5328-D665-490E-8A18-D1CA7DCC4596}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BEE760C-F985-43E5-8CDE-9CE23571170E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4903B823-8AE1-407B-9344-13D8A4C66D28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B37ED78F-0B4A-49A2-B3C7-44035B4C8EE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E656636-4A91-4F4E-8079-F397C32C1B66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E39975B-2FB5-4599-ADAF-13DD899D1818}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E022627-A045-4469-8243-48EA1E3FD311}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F275B082-FB6D-45AC-A791-179959363742}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E5E88E9-7509-4EF3-85D3-4018219162EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED8DACC7-6351-41E0-B972-B8217C5969DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0393C5DF-B981-45E7-9A68-B7F9BD71511C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D4D98BA-EE79-40E7-998E-833619B1349A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B89D2E6B-10A8-48D2-80F2-83DE854BBCC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9C9337E-E712-4D18-A367-BEA1174121FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{268B27B6-C8F8-468C-BFAC-E82C3D0047C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{528D50F2-589A-483C-AF16-03206DF8BC2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F50389CA-5580-4126-B534-EA4B548A92E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A625E00D-F392-46E6-BD04-531259C449D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51336196-25C5-4B15-926A-0BF09E79E903}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8440D35-185C-45B5-81BE-BD83B9DAB975}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D69AA394-A421-49F3-88B4-7B359F527C17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6373,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7C8F0C-1E96-40D0-A5B3-1D44CFED8116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC123456-6C5C-47DE-BCEC-074A3D61D17C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7623,18 +7623,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3A7DEBF-4AA9-416A-AA40-A16857F038F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87551DFD-9920-465D-B0DB-C157135957F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1917D224-8D0E-475A-BA79-3B5D1248775E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCE9C664-333C-43CE-BDD8-D4FF246C6C7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E95ED103-E38F-4D3D-8B45-FA9348B4A8E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A8893B8-3535-4464-A50A-31E12F49D0A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1174B31-39AA-481D-AF8A-95D9680E5D40}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5236008-B182-41B7-A537-A1739DEEEAA5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB0B40E9-9951-4C16-9A71-3B2403E9FDE2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A6E27AD-6079-4325-BC09-4ADFF21EDCE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10E79496-4A29-4FF3-B665-6D854F7933B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24D09038-85A9-4326-B702-6CC4B84A1406}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DFA1034-5FBE-4AED-A793-B850ECCF9A15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68E971D1-3707-4E69-8A8D-22A6968F6613}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B2BAED9-BFD1-4E17-89AA-533775C7BE6F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{675A814F-2A0C-4706-B488-6B5339D17B2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FB0856A-3463-4E4A-9BCA-565807C1D1F0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87A73214-10FF-4027-B1D4-EFB00A196115}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D80A0B2E-51CF-49FC-9D8A-7C644343A621}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C019962C-64EE-4B61-BF34-D909795700DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E9E3C1D-7BBD-45B3-A202-1ABC2ED8A40A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57965F58-883E-4804-B375-4D2FFD0C1B21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{949CBDBB-A3E1-485C-A3E9-7A73ED33E8DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D6EB2ED-CBE5-4492-91FB-FB14615E08E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7647,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A498C8-0863-4849-AE4A-B5DFD5D48B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13E4462-A0EC-4B38-A5D6-F794417026E0}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8897,18 +8897,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{823BAE32-CF5A-40B4-860F-8A42FB991D05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{897663B2-7D81-48D4-84C1-D2717628093D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E83168DB-7B6E-49AC-88D1-5C1B00DF6282}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B09F406A-6AFE-4C3A-B603-E867DDBFB79A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53D42A0E-D555-4C95-A326-84A3A382AC98}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CA1A8E5-90A6-4759-912E-8869AC8BB187}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A8B0518-8EFE-433F-9295-39B734B2FA20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{268F30E3-FCBD-4FFB-AA98-57EF774837A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C17C82D8-B3E6-46C4-9D40-5FBB12CAD4D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C8F5FBA-FC15-4263-80FB-79CE68A7D5D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE7CE15F-AA73-413B-8BED-3CF4A41BBAE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79CCB04B-7BA7-41DB-B9F7-B00F7B25B11D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{135484CD-60B9-446D-8EB3-BCEE2DD1678D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3125F4E3-7C85-4B68-9094-902D65FE38DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27FF96F9-7633-41AE-A706-15DDA39BCA23}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2ACDAAE1-4DA6-4B82-895C-8C887566508C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53C70D36-E9E1-42AF-8FF5-0C295F460F2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8C66EF1-1F49-4483-9D2B-C4350F57D5DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{288795C4-BB16-4894-941A-634CC609595A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F58E6BC3-7050-431A-BAEB-87FA747D4632}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F52B16FD-0886-418D-A51D-369AC39D3221}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF2F9B09-2248-4976-8AD1-33E6585ABAEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{943E73D9-42D0-457C-BB88-55A09D46D50D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D4A7CCC-305A-4C30-9366-B5C644356CD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8921,7 +8921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF23C992-8503-4E76-97CB-36FF59C6F4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE022A3-7813-4E54-B84D-2CDA1BA04538}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10171,18 +10171,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA3CB007-FFD6-4BF7-ABFB-9B7B9EF210F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B27F148C-1B07-42B3-A2AD-4FEBC1BA28F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6B6F94A-1704-45F0-A662-660F46DE82A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6EC588A-1ABA-4DE3-9C66-DEEBCE2AEA68}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE6E4362-6992-456C-861B-F7424B2B899F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6949317-2074-4532-BD5F-12869F3C159E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{458697AB-3257-4515-A8BA-5F7DDC345CD6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD108FAA-23BF-4CB3-9F55-0584046552E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F9BD622-4D46-4D3B-854E-1638D60B6EC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B53B4B4-D791-468C-9BCB-DB17B2F135A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06534583-EEA0-4968-9A71-E25BAFB73B41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5891FC0-9F12-4981-B041-D41222F38570}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9736B7B-D326-483B-B158-20AC1B856224}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39743160-F96E-4C3E-9293-E4D0D9D852D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33CA540F-E9C0-43F6-B883-BE8E1FB59891}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31EB56E8-5165-4CF8-B3B6-969B00B80D95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEB22491-B6FB-4014-9B9B-9BF52682C8FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D078B979-7890-49C3-81AB-D5D903FB75D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{231880CB-CB3C-437F-9CDA-2BBF21B5D633}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46A9A816-AB22-4693-9897-B563440133C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28F777AD-A0E0-43F4-BB02-EE7DA41544A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F05F90E-0857-4E2D-A7B0-0924C1A82BF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04168980-0BAB-41A5-9E99-45F49DAF5C1E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C4BF902-DD9B-41B5-9A58-E80E2CF6B454}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10195,7 +10195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B4F39B-A171-4A5E-B1DF-47FB9309F1A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F51FBF-C72B-45A4-AC13-6E530FC7CC91}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11441,18 +11441,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD5AEAB6-D3BE-4023-8EE8-A61A4BFF32E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D93DF02-B3E1-4EFF-81E3-7F578E939FD9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65EEB4AE-6AB0-40ED-B74E-2B3C32C33BC5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7653413F-D138-4945-AFED-B60670FA96B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72EBB7A5-DDD3-4822-93D4-BA2A27214958}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A8DEC1A-9CA3-4505-91E1-D2B262A88B35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96AD7295-EEFC-4425-AC4E-A979774E60DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7A85BE9-407D-4543-8E9C-76020162602C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF7DCBA6-9745-440B-9785-44F1CCE91296}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE789E6A-9D03-4BA5-BC5A-40905974A281}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B3D11A1-0C82-4DC9-8C79-52426CD10F9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D943EBA-0F87-4D49-A0FC-480F6E6A6167}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{921A1A17-505C-42E5-887A-B045D8400288}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EFE87DB-CFEF-46E8-9C1B-634207A38544}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95284986-2F15-404F-9234-4286D1D20000}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57FF3414-FA46-4D41-B289-47525728946E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25A9B815-F638-49B7-B8EA-EA077B442B34}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB944695-FBD2-4F2B-9007-2BD04448106A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D76C727E-DBA1-4C7E-9A28-27B65B379133}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BFB808A-D943-491A-8113-5A0A1D516B9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F7BEA53-7683-4761-8F82-61F573272C28}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20993117-DF12-4E65-8A37-0CF5862E5700}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1B73583-2336-416B-8476-5B01389C4C2C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7115745C-3ADC-4EBF-8E1A-ABDAAD05FD9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11465,7 +11465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FFD76-0710-4EB2-9DA9-E9999CD7FB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C187AD-2231-49D1-8D96-7C20525D8C24}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12699,18 +12699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4330E97-1EEA-4F30-B7ED-B6692E957CDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41A0A752-E2A6-46C8-B189-40CD197D3CFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39B85669-1C5C-487B-9C9B-F2D490988E03}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9597AEE1-2ADE-4B85-9A59-746581670723}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0C43841-515B-48CC-BF80-101FF0F0B532}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0BC8CA58-333B-40CB-B3A6-A87E4F4E24D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{125CA3B8-CB19-46B4-8644-083F5706DE31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBC3E958-6092-4CED-B4AF-7A09F5AB42DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77FCBE76-6AA4-4934-B770-8FB1CC4280F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B072859-FD16-4089-BECC-ACB739C16CF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7ED280DB-96FA-4859-B02A-60B5AE34523E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{387C6AF7-3BA3-462B-A166-62110029C2C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14514338-438C-4C34-AB51-FD54C4B33EE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE589227-BD31-48E0-99BC-D4DAD5BAB050}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{302E2C3E-C509-49A6-8C47-95F65EAF560A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D1F1DE9-99B7-4906-A208-C1D2E562B893}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{118F16B5-78DF-4FBB-88A8-A69266A7DA33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{564C7483-CA19-4429-B373-0E3A0A68763A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C29BF8C-F2E3-4FBF-B287-1F6116D8C650}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C7B1BB0-02E0-4319-9C5D-323C7D8F7F9C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A35CEB8-50D4-4BFA-9951-AEAC7F5AB429}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF0F05EC-E084-4CFC-8ADB-97264123F96D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21B36C8F-9BB6-457B-863E-3D0AF72405B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B43D456-FDA5-4416-9213-049A2007FCB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12723,7 +12723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27B8448-B6BF-4BAA-9508-BC2546CA7089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CDB57-AFDD-418B-B5FA-FE88B7E5AC66}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13957,18 +13957,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AC381D5-46C2-45A3-B013-A42DDA500FB7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3D18445-B969-4566-BB34-EFC95DCA047C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CC7505D-56B9-4F61-88F5-A07469A7F38D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71228BAB-4973-4529-83DD-7B42648752A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{506074D9-840F-42A2-8679-052A04A5B036}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{906FCCEC-5AD4-41D8-AB90-EB9A60347C13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06AFC832-B520-4FE6-A2CC-561BAEE8CA2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A81CCCCD-78A0-42B2-A25B-BC7D4711B8C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6F8BA2C-AC2D-4DBF-B675-16D869220135}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{638E8EFF-BFAE-401A-9B43-908FF937062A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55E11F66-87BE-47D8-8435-32CFA16A2F56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{072824DD-49EA-46D5-BC8C-92A306090A72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29803101-F514-4D2C-BABE-2CFDD38DDDE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84932735-D2C7-4A58-8DE5-0C23753AD4E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CBB5876-25EC-4234-9696-D7929B479C3D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B78C3831-47A3-4CE5-8927-8DA09B52A18A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED728D12-67AE-4303-A66E-688C40AB97A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C6C9B90-BB19-450A-8DD9-2CFEA03C4BD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C6DC858-F294-4A4B-B5E7-0AFC1A027B48}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B00523CB-F1E0-4AAF-A939-67CB58348BEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8931CA76-1B4F-4B55-B3FE-ECC32FAB7578}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2FF4794-B087-4EEC-B0EE-8B7857311DEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C66FEE5C-87CE-4066-A4E9-FA7BA15232ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20B3693B-9BFD-4934-A2F0-3106B8F1C502}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13981,7 +13981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7EC631-D380-4C7E-A0EF-C0D989A31B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5A11B-CB9D-4D83-AFBD-2545B7921C75}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15215,18 +15215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D75FC107-45A1-4312-AA33-0DB7EFCCF6D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BFDBF21-AD98-4E7E-B635-C53124C87281}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEA1146D-A844-4C5A-B7DB-A99FE109783A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66F182B0-3CBE-46F5-A354-40A603DED573}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3B17971-A5D5-4ED0-B448-39532D399B26}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58E8C171-A043-4DEA-8E68-72506B267B83}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52FCF12C-389D-46D8-B458-8E40926BC464}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71510A6A-7800-47A2-9A6F-318DBA9AB4A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E509EA52-E285-4A36-B5AB-E4E1FA22CF6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{860F8CA1-94CC-4980-838A-4241FC97BB1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A208149-624D-4FF4-A8D2-3049130522CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55458B9C-C2E9-408B-97D6-BBF14425EB58}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76806A4F-6562-457B-BA63-9F97FE3686B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C4C0E8C-16F4-4010-B797-C27EF4F2DE44}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2F0C5F0-2317-4EFE-85CF-1C50B6A436AB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3467138A-66A6-467D-9CF1-D2537FFEF622}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{692A21BA-CDB6-437F-B927-817E0741EB66}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAFA7BED-32E9-468D-AAF8-844D7A664AEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BCBCBC9-53B8-4D05-8D43-200934A6149D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C15336D9-8F69-4382-9A26-77DB5E9FAEB1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96074609-C10A-4DEE-9C0F-55EE95431A89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB71F1B7-A58B-4FB8-B197-C069DB505ED2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{110CF09A-C30B-4C81-B774-79CDDD16DA02}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FD55FBA-4EE6-4272-AA5B-ADB56619617A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15239,7 +15239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1E2C1-BB82-49CA-B1A7-47A998B7C6B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852DC2E5-BD51-46D4-A5D9-683AD7A25FB2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16473,18 +16473,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08644F74-FD7B-4D99-9832-8A0E4C371085}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D273B56-7706-44A1-AD78-23F8FE1FE4D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{354F8B41-6A3D-4147-AC88-AF7EC200730E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91EBCF61-5898-4EAB-80C3-BE0354A1E012}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F821AADC-8C33-473B-8A23-8CF48AC1DEDF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF1C8CBD-1737-4370-843D-83C94653C26C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{142B9151-2059-475F-B321-5C0AA553B479}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5431C62C-03C6-45F5-8C7B-3CAA7A504509}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{830EF9D6-6E12-471E-915A-00D82EC8762C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F51311D-8887-40B5-8121-D0C064A78101}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C3CF625-1B4B-4880-BAF3-130050311890}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0874196F-F2F0-44F4-9602-311639A99289}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2BCEB1A-3435-492A-8BD6-828D972D8260}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3E650BF-D492-4B66-BE42-B298615C7BEF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C673032C-7514-47F5-AEE0-935C658E3AB7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32B572D5-7D00-4A7A-B7C6-52465BF4FCA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7877E335-3A04-48CA-9385-240179EB1EF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B4F5C6D-10C8-40B4-B0EC-02F67F8A43A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58FAB5E3-6903-4E36-8F5D-CEB2AFBD3344}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CA5102E-2F28-4EDB-9BAF-FA7C1B4E3F2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE530272-20B8-49F8-BE86-847C248A5F0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE2ABBC2-FF30-4F31-A135-DBFB2B10C41A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{377E12F3-988E-49CF-857B-5B8034731606}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36C532FC-AB09-4A16-A982-F9ABD8F30C4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
